--- a/tactile_tabletop/Character Cards/Tactile Tabletop Data - Level 2 CC.xlsx
+++ b/tactile_tabletop/Character Cards/Tactile Tabletop Data - Level 2 CC.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TableTopRolePlaying_Squib\tactile_tabletop\Character Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A1884A-BE16-46B4-94ED-F6D0F38948C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A2ED77-4E3A-41C6-A99A-4388F0DC667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="510" windowWidth="26370" windowHeight="15690" tabRatio="292" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tactile Tabletop Data - Level 2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="378">
   <si>
     <t>Top Ability Name</t>
   </si>
@@ -123,6 +132,9 @@
     <t>3 Kno</t>
   </si>
   <si>
+    <t>craftmanship</t>
+  </si>
+  <si>
     <t>Hand Up</t>
   </si>
   <si>
@@ -168,6 +180,9 @@
     <t>2 Vig and (1 Fin or 1 Str)</t>
   </si>
   <si>
+    <t xml:space="preserve">doesn't have anything to do with damage, no strength. </t>
+  </si>
+  <si>
     <t>Min</t>
   </si>
   <si>
@@ -378,6 +393,9 @@
     <t>On success, add influence value to attack values against that enemy</t>
   </si>
   <si>
+    <t xml:space="preserve">2 Vig or </t>
+  </si>
+  <si>
     <t>Covering Fire</t>
   </si>
   <si>
@@ -397,6 +415,9 @@
   </si>
   <si>
     <t>3 Fin</t>
+  </si>
+  <si>
+    <t>covering fire should be vigor? Damage against enemies in area, strength? Spirituality?</t>
   </si>
   <si>
     <t>Transfusion</t>
@@ -624,6 +645,12 @@
   </si>
   <si>
     <t>2 Health</t>
+  </si>
+  <si>
+    <t>1 Vig and 1 Fin</t>
+  </si>
+  <si>
+    <t>succeed defense roll to reduce enemy defense… more of a finesse thing?</t>
   </si>
   <si>
     <t>Reset</t>
@@ -800,132 +827,342 @@
     <t>Ally may return 3 cards from discard</t>
   </si>
   <si>
-    <t>succeed defense roll to reduce enemy defense… more of a finesse thing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doesn't have anything to do with damage, no strength. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Vig or </t>
-  </si>
-  <si>
-    <t>1 Vig and 1 Fin</t>
-  </si>
-  <si>
-    <t>craftmanship</t>
-  </si>
-  <si>
-    <t>covering fire should be vigor? Damage against enemies in area, strength? Spirituality?</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>rule target</t>
+  </si>
+  <si>
+    <t>rule stuff</t>
+  </si>
+  <si>
     <t>rule</t>
   </si>
   <si>
+    <t>proposed stats</t>
+  </si>
+  <si>
+    <t>know path to target in range</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>locate enemies in 30 ft</t>
+  </si>
+  <si>
+    <t>deny enemy targeting (self, also on ally)</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>per 8</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Re-use exhausted ability</t>
+  </si>
+  <si>
+    <t>kno</t>
+  </si>
+  <si>
+    <t>cha 15</t>
+  </si>
+  <si>
+    <t>control sound in area</t>
+  </si>
+  <si>
+    <t>cra</t>
+  </si>
+  <si>
+    <t>kno 12</t>
+  </si>
+  <si>
+    <t>Ory</t>
+  </si>
+  <si>
+    <t>store sounds in object</t>
+  </si>
+  <si>
+    <t>cra 12</t>
+  </si>
+  <si>
+    <t>kill if double damage would kill</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>str 20</t>
+  </si>
+  <si>
+    <t>lose health ; prevent ally death</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>fin 22</t>
+  </si>
+  <si>
+    <t>prevent overstep</t>
+  </si>
+  <si>
+    <t>spi 13</t>
+  </si>
+  <si>
+    <t>gain movement ; enemy follows your movement ; mark usage</t>
+  </si>
+  <si>
+    <t>fin, cha, per</t>
+  </si>
+  <si>
+    <t>vig 11</t>
+  </si>
+  <si>
+    <t>gain movement</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>create consumables ; heal</t>
+  </si>
+  <si>
+    <t>cra, spi</t>
+  </si>
+  <si>
+    <t>create consumables ; damage unblockable</t>
+  </si>
+  <si>
+    <t>cra, fin</t>
+  </si>
+  <si>
+    <t>summons ; damage unblockable</t>
+  </si>
+  <si>
+    <t>spi, fin</t>
+  </si>
+  <si>
+    <t>summons (when downed)</t>
+  </si>
+  <si>
+    <t>debuff self defense ; return ally's tokens</t>
+  </si>
+  <si>
+    <t>debuff self defense ; buff ally defense</t>
+  </si>
+  <si>
+    <t>Kno vig</t>
+  </si>
+  <si>
+    <t>debuff self defense ; damage unblockable</t>
+  </si>
+  <si>
+    <t>Kno, fin</t>
+  </si>
+  <si>
+    <t>attack ; single enemy multiple times</t>
+  </si>
+  <si>
+    <t>Attack ; multiple enemies ; damage unblockable</t>
+  </si>
+  <si>
+    <t>Str, fin</t>
+  </si>
+  <si>
+    <t>attack ; multiple enemies</t>
+  </si>
+  <si>
+    <t>(if defend all damage) attack ; debuff enemy defense (to 0)</t>
+  </si>
+  <si>
+    <t>Attack ; if damage dealt ; multiple enemies</t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; debuff enemy defense</t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; debuff enemy attack</t>
+  </si>
+  <si>
+    <t>str, vig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack    X = Level </t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; debuff enemy influence</t>
+  </si>
+  <si>
+    <t>Attack    X = Level    Y = X/2</t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; debuff enemy defense ; debuff enemy movement</t>
+  </si>
+  <si>
+    <t>str, cha</t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; damage unblockable</t>
+  </si>
+  <si>
+    <t>str, fin</t>
+  </si>
+  <si>
+    <t>attack ; if damage dealt ; get card from discard ; heal self</t>
+  </si>
+  <si>
+    <t>str, kno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attack ; if damage dealt ; beat influence ; move enemy </t>
+  </si>
+  <si>
+    <t>attack (with hands) ; if damage dealt ; deny enemy targeting (anything)</t>
+  </si>
+  <si>
+    <t>attack ; create area ; damage unblockable ; gain movement</t>
+  </si>
+  <si>
+    <t>create area ; damage to defend against (requires enemy movement, near you)</t>
+  </si>
+  <si>
+    <t>create area ; damage to defend against</t>
+  </si>
+  <si>
+    <t>X = Level    Y = Amount Sacrificed</t>
+  </si>
+  <si>
+    <t>create area ; damage unblockable ; gain movement</t>
+  </si>
+  <si>
+    <t>create area ; damage unblockable</t>
+  </si>
+  <si>
+    <t>create area ; damage unblockable (twice if stay in it)</t>
+  </si>
+  <si>
+    <t>damage unblockable (when attacked)</t>
+  </si>
+  <si>
+    <t>debuff enemy attack (0 for their next attack)</t>
+  </si>
+  <si>
+    <t>vig</t>
+  </si>
+  <si>
+    <t>debuff enemy attack ; multiple enemies</t>
+  </si>
+  <si>
+    <t>debuff enemy attack</t>
+  </si>
+  <si>
+    <t>beat influence ; control enemy's target</t>
+  </si>
+  <si>
+    <t>beat influence ; damage unblockable ; prevent actions</t>
+  </si>
+  <si>
+    <t>fin, cha</t>
+  </si>
+  <si>
+    <t>beat influence ; debuff enemy movement</t>
+  </si>
+  <si>
+    <t>beat influence ; debuff enemy movement (to 0)</t>
+  </si>
+  <si>
+    <t>beat influence ; damage unblockable ; debuff enemy rolls</t>
+  </si>
+  <si>
+    <t>cha, fin</t>
+  </si>
+  <si>
+    <t>beat influence ; damage unblockable</t>
+  </si>
+  <si>
+    <t>beat influence ; damage unblockable (= amount of cards)</t>
+  </si>
+  <si>
+    <t>beat influence ; damage unblockable ; multiple enemies</t>
+  </si>
+  <si>
+    <t>beat influence ; unblockable damage</t>
+  </si>
+  <si>
+    <t>beat influence ; debuff next enemy roll</t>
+  </si>
+  <si>
+    <t>beat influence ; buff self attack</t>
+  </si>
+  <si>
+    <t>beat influence ; attack ; debuff enemy defense ; mark usage</t>
+  </si>
+  <si>
+    <t>str, per</t>
+  </si>
+  <si>
+    <t>mark ; beat influence (to not lose card)</t>
+  </si>
+  <si>
+    <t>mark (all attackers)</t>
+  </si>
+  <si>
+    <t>heal self</t>
+  </si>
+  <si>
+    <t>heal self ; mark usage</t>
+  </si>
+  <si>
+    <t>vig, per</t>
+  </si>
+  <si>
+    <t>heal ally ; lose health</t>
+  </si>
+  <si>
+    <t>Heal ally</t>
+  </si>
+  <si>
+    <t>heal ally</t>
+  </si>
+  <si>
+    <t>X = Level    Y = rounds kept in stasis * X</t>
+  </si>
+  <si>
+    <t>heal ally ; grant ally another ability use</t>
+  </si>
+  <si>
+    <t>heal allies</t>
+  </si>
+  <si>
+    <t>spi, kno</t>
+  </si>
+  <si>
+    <t>heal ally ; heal self ; get card from discard ; get ally card from discard</t>
+  </si>
+  <si>
+    <t>spi, vig, kno</t>
+  </si>
+  <si>
+    <t>get ally card from discard</t>
+  </si>
+  <si>
+    <t>buff ally health ; buff ally defense</t>
+  </si>
+  <si>
+    <t>buff ally attack ; buff ally defense</t>
+  </si>
+  <si>
     <t>grant ally another ability use</t>
   </si>
   <si>
-    <t>rule stuff</t>
-  </si>
-  <si>
-    <t>rule target</t>
-  </si>
-  <si>
-    <t>attack ; single enemy multiple times</t>
-  </si>
-  <si>
-    <t>create area ; damage to defend against (requires enemy movement, near you)</t>
-  </si>
-  <si>
-    <t>create area ; damage unblockable (twice if stay in it)</t>
-  </si>
-  <si>
-    <t>know path to target in range</t>
-  </si>
-  <si>
-    <t>Attack ; multiple enemies ; damage unblockable</t>
-  </si>
-  <si>
-    <t>debuff enemy attack (0 for their next attack)</t>
-  </si>
-  <si>
-    <t>debuff enemy attack ; multiple enemies</t>
-  </si>
-  <si>
-    <t>create area ; damage unblockable</t>
-  </si>
-  <si>
-    <t>attack ; multiple enemies</t>
-  </si>
-  <si>
-    <t>gain movement</t>
-  </si>
-  <si>
-    <t>heal ally ; lose health</t>
-  </si>
-  <si>
-    <t>Heal ally</t>
-  </si>
-  <si>
-    <t>mark (all attackers)</t>
-  </si>
-  <si>
-    <t>heal ally</t>
-  </si>
-  <si>
-    <t>summons ; damage unblockable</t>
-  </si>
-  <si>
     <t>grant ally another ability use (top) ; get card from discard</t>
   </si>
   <si>
-    <t>heal ally ; grant ally another ability use</t>
-  </si>
-  <si>
-    <t>X = Level    Y = rounds kept in stasis * X</t>
-  </si>
-  <si>
-    <t>debuff enemy attack</t>
-  </si>
-  <si>
-    <t>Attack ; if damage dealt ; multiple enemies</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; debuff enemy defense</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; debuff enemy attack</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; get card from discard ; heal self</t>
-  </si>
-  <si>
-    <t>beat influence ; debuff next enemy roll</t>
-  </si>
-  <si>
-    <t>beat influence ; attack ; debuff enemy defense ; mark usage</t>
-  </si>
-  <si>
-    <t>beat influence ; damage unblockable ; multiple enemies</t>
-  </si>
-  <si>
-    <t>debuff self defense ; buff ally defense</t>
-  </si>
-  <si>
-    <t>debuff self defense ; return ally's tokens</t>
-  </si>
-  <si>
-    <t>X = Level    Y = Amount Sacrificed</t>
-  </si>
-  <si>
-    <t>control sound in area</t>
-  </si>
-  <si>
-    <t>buff ally health ; buff ally defense</t>
-  </si>
-  <si>
     <t>grant ally another ability use (2) ; debuff self (no actions next turn)</t>
   </si>
   <si>
@@ -936,458 +1173,58 @@
   </si>
   <si>
     <t>buff self defense (influence)</t>
-  </si>
-  <si>
-    <t>debuff self defense ; damage unblockable</t>
-  </si>
-  <si>
-    <t>create area ; damage unblockable ; gain movement</t>
-  </si>
-  <si>
-    <t>heal ally ; heal self ; get card from discard ; get ally card from discard</t>
-  </si>
-  <si>
-    <t>beat influence ; unblockable damage</t>
-  </si>
-  <si>
-    <t>beat influence ; damage unblockable</t>
-  </si>
-  <si>
-    <t>beat influence ; damage unblockable ; debuff enemy rolls</t>
-  </si>
-  <si>
-    <t>beat influence ; damage unblockable (= amount of cards)</t>
-  </si>
-  <si>
-    <t>deny enemy targeting (self, also on ally)</t>
-  </si>
-  <si>
-    <t>attack (with hands) ; if damage dealt ; deny enemy targeting (anything)</t>
-  </si>
-  <si>
-    <t>mark ; beat influence (to not lose card)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack ; if damage dealt ; beat influence ; move enemy </t>
-  </si>
-  <si>
-    <t>locate enemies in 30 ft</t>
-  </si>
-  <si>
-    <t>beat influence ; buff self attack</t>
-  </si>
-  <si>
-    <t>heal allies</t>
-  </si>
-  <si>
-    <t>create consumables ; heal</t>
-  </si>
-  <si>
-    <t>kill if double damage would kill</t>
-  </si>
-  <si>
-    <t>create area ; damage to defend against</t>
-  </si>
-  <si>
-    <t>heal self ; mark usage</t>
-  </si>
-  <si>
-    <t>gain movement ; enemy follows your movement ; mark usage</t>
-  </si>
-  <si>
-    <t>beat influence ; debuff enemy movement (to 0)</t>
-  </si>
-  <si>
-    <t>beat influence ; debuff enemy movement</t>
-  </si>
-  <si>
-    <t>Re-use exhausted ability</t>
-  </si>
-  <si>
-    <t>beat influence ; control enemy target</t>
-  </si>
-  <si>
-    <t>summons (when downed)</t>
-  </si>
-  <si>
-    <t>lose health ; prevent ally death</t>
-  </si>
-  <si>
-    <t>(if defend all damage) attack ; debuff enemy defense (to 0)</t>
-  </si>
-  <si>
-    <t>prevent overstep</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; debuff enemy defense ; debuff enemy movement</t>
-  </si>
-  <si>
-    <t>Attack    X = Level    Y = X/2</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; debuff enemy influence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack    X = Level </t>
-  </si>
-  <si>
-    <t>heal self</t>
-  </si>
-  <si>
-    <t>buff ally attack ; buff ally defense</t>
-  </si>
-  <si>
-    <t>beat influence ; damage unblockable ; prevent actions</t>
-  </si>
-  <si>
-    <t>create consumables ; damage unblockable</t>
-  </si>
-  <si>
-    <t>attack ; if damage dealt ; damage unblockable</t>
-  </si>
-  <si>
-    <t>attack ; create area ; damage unblockable ; gain movement</t>
-  </si>
-  <si>
-    <t>damage unblockable (when attacked)</t>
-  </si>
-  <si>
-    <t>store sounds in object</t>
-  </si>
-  <si>
-    <t>get ally card from discard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1395,217 +1232,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1905,7 +1556,92 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1916,35 +1652,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="53.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.42578125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="6.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2047,15 +1783,15 @@
         <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -2064,16 +1800,16 @@
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -2082,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>30</v>
@@ -2091,62 +1827,62 @@
         <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -2155,22 +1891,22 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
@@ -2179,21 +1915,21 @@
         <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2202,101 +1938,101 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -2305,42 +2041,42 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2349,19 +2085,19 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
@@ -2370,27 +2106,27 @@
         <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2399,19 +2135,19 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -2420,77 +2156,77 @@
         <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2499,19 +2235,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
@@ -2520,33 +2256,33 @@
         <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
@@ -2555,13 +2291,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>25</v>
@@ -2570,60 +2306,60 @@
         <v>19</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>30</v>
@@ -2632,62 +2368,62 @@
         <v>31</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -2696,19 +2432,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>18</v>
@@ -2717,66 +2453,66 @@
         <v>19</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>30</v>
@@ -2785,48 +2521,48 @@
         <v>31</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>30</v>
@@ -2835,12 +2571,12 @@
         <v>31</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -2849,116 +2585,116 @@
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>25</v>
@@ -2967,48 +2703,48 @@
         <v>19</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>18</v>
@@ -3017,13 +2753,13 @@
         <v>19</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>23</v>
@@ -3032,33 +2768,33 @@
         <v>31</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>25</v>
@@ -3067,13 +2803,13 @@
         <v>19</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>30</v>
@@ -3082,30 +2818,30 @@
         <v>31</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>25</v>
@@ -3117,21 +2853,21 @@
         <v>28</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -3140,19 +2876,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>25</v>
@@ -3161,13 +2897,13 @@
         <v>19</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>23</v>
@@ -3176,12 +2912,12 @@
         <v>31</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -3190,31 +2926,31 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>30</v>
@@ -3223,33 +2959,33 @@
         <v>31</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>25</v>
@@ -3258,13 +2994,13 @@
         <v>19</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>30</v>
@@ -3273,48 +3009,48 @@
         <v>31</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>30</v>
@@ -3323,83 +3059,83 @@
         <v>31</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>25</v>
@@ -3411,24 +3147,24 @@
         <v>21</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
@@ -3437,19 +3173,19 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
@@ -3461,21 +3197,21 @@
         <v>28</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -3484,101 +3220,101 @@
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
@@ -3587,128 +3323,128 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>23</v>
@@ -3717,12 +3453,12 @@
         <v>31</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -3731,34 +3467,34 @@
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>23</v>
@@ -3767,45 +3503,45 @@
         <v>31</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>23</v>
@@ -3814,12 +3550,12 @@
         <v>31</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>25</v>
@@ -3828,31 +3564,31 @@
         <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>23</v>
@@ -3861,36 +3597,36 @@
         <v>31</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>19</v>
@@ -3899,7 +3635,7 @@
         <v>28</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>23</v>
@@ -3908,298 +3644,421 @@
         <v>31</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640B8C33-C81F-4CFE-8897-01630776BDAE}">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="91.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -4210,440 +4069,535 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -4654,332 +4608,406 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -4988,25 +5016,33 @@
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>301</v>
+        <v>377</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>